--- a/data/trans_bre/POLIPATOLOGIA-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA-Provincia-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 14,51</t>
+          <t>0,62; 14,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,57; 24,87</t>
+          <t>8,96; 24,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 11,62</t>
+          <t>-1,72; 11,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,36; 94,85</t>
+          <t>2,11; 95,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,33; 121,25</t>
+          <t>32,0; 118,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 45,07</t>
+          <t>-4,96; 45,68</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,49; 27,48</t>
+          <t>16,93; 28,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,91; 19,98</t>
+          <t>8,24; 20,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,75; 19,06</t>
+          <t>7,54; 18,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,02; 18,76</t>
+          <t>6,94; 19,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>79,68; 177,81</t>
+          <t>80,51; 187,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,89; 116,38</t>
+          <t>34,55; 114,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,85; 96,46</t>
+          <t>31,23; 100,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,85; 80,74</t>
+          <t>22,95; 82,92</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 20,81</t>
+          <t>7,39; 20,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 15,53</t>
+          <t>1,01; 16,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,45; 19,96</t>
+          <t>5,36; 19,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,3; 17,67</t>
+          <t>4,75; 17,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>36,04; 157,6</t>
+          <t>38,14; 154,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 63,15</t>
+          <t>3,01; 65,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,75; 123,29</t>
+          <t>25,03; 121,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,54; 53,67</t>
+          <t>11,79; 54,25</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,12; 16,6</t>
+          <t>3,42; 16,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,69; 24,78</t>
+          <t>14,44; 24,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,09; 20,83</t>
+          <t>6,88; 20,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,69; 22,67</t>
+          <t>4,63; 22,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,74; 96,0</t>
+          <t>14,11; 93,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>56,26; 118,69</t>
+          <t>54,81; 117,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,58; 82,04</t>
+          <t>21,15; 81,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,14; 70,55</t>
+          <t>10,84; 71,61</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,94; 26,18</t>
+          <t>9,83; 25,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,1; 39,89</t>
+          <t>21,81; 39,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,66; 25,78</t>
+          <t>8,25; 25,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 23,72</t>
+          <t>-0,28; 23,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>59,87; 287,38</t>
+          <t>59,89; 272,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,25; 169,54</t>
+          <t>66,43; 166,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,24; 134,51</t>
+          <t>29,13; 138,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 79,71</t>
+          <t>2,44; 79,97</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,12; 25,26</t>
+          <t>9,66; 24,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,19; 21,43</t>
+          <t>4,21; 21,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,42; 18,94</t>
+          <t>2,89; 18,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 13,0</t>
+          <t>-1,71; 13,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>44,82; 172,99</t>
+          <t>45,19; 168,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,99; 76,74</t>
+          <t>11,14; 73,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,32; 94,65</t>
+          <t>10,46; 89,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 32,94</t>
+          <t>-2,96; 34,45</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,66; 14,91</t>
+          <t>5,71; 15,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,6; 18,16</t>
+          <t>7,63; 18,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,96; 15,73</t>
+          <t>5,61; 15,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,38; 39,08</t>
+          <t>20,1; 41,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,46; 87,01</t>
+          <t>25,49; 92,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,79; 75,09</t>
+          <t>26,17; 76,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24,75; 80,8</t>
+          <t>23,01; 83,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>44,73; 104,17</t>
+          <t>46,8; 106,1</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,43; 17,72</t>
+          <t>7,56; 17,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,65; 14,45</t>
+          <t>6,04; 14,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,6; 13,72</t>
+          <t>4,42; 13,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,37; 17,91</t>
+          <t>7,48; 17,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>26,64; 78,25</t>
+          <t>27,44; 76,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>25,38; 83,03</t>
+          <t>27,59; 87,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,39; 58,54</t>
+          <t>15,59; 55,93</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>26,28; 84,45</t>
+          <t>26,23; 80,6</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,49; 15,89</t>
+          <t>11,64; 16,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>12,27; 16,66</t>
+          <t>12,31; 16,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,1; 14,4</t>
+          <t>10,11; 14,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,97; 20,14</t>
+          <t>11,99; 20,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>55,13; 84,93</t>
+          <t>55,85; 85,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>48,18; 71,8</t>
+          <t>48,57; 72,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>40,48; 62,95</t>
+          <t>40,53; 63,04</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>35,31; 64,19</t>
+          <t>35,05; 64,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/POLIPATOLOGIA-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 14,47</t>
+          <t>0,17; 14,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,96; 24,44</t>
+          <t>9,39; 25,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,11; 95,09</t>
+          <t>0,97; 98,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,0; 118,97</t>
+          <t>33,11; 124,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,93; 28,55</t>
+          <t>16,48; 27,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,24; 20,29</t>
+          <t>7,45; 19,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,54; 18,7</t>
+          <t>8,24; 19,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>80,51; 187,39</t>
+          <t>80,69; 180,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,55; 114,65</t>
+          <t>30,41; 109,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,23; 100,6</t>
+          <t>33,93; 103,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,39; 20,63</t>
+          <t>7,62; 20,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 16,05</t>
+          <t>1,68; 16,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 19,13</t>
+          <t>6,32; 19,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>38,14; 154,31</t>
+          <t>37,36; 146,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 65,32</t>
+          <t>4,85; 65,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,03; 121,31</t>
+          <t>26,28; 117,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,42; 16,04</t>
+          <t>3,66; 16,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,44; 24,78</t>
+          <t>14,56; 24,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,88; 20,82</t>
+          <t>7,18; 21,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,11; 93,74</t>
+          <t>14,21; 94,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>54,81; 117,1</t>
+          <t>56,3; 117,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,15; 81,36</t>
+          <t>23,15; 85,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,83; 25,85</t>
+          <t>9,76; 26,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,81; 39,25</t>
+          <t>20,35; 39,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,25; 25,72</t>
+          <t>8,45; 26,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>59,89; 272,86</t>
+          <t>53,81; 264,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>66,43; 166,83</t>
+          <t>59,33; 173,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,13; 138,49</t>
+          <t>31,34; 142,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,66; 24,9</t>
+          <t>9,92; 24,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,21; 21,31</t>
+          <t>4,78; 21,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,89; 18,0</t>
+          <t>3,64; 18,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>45,19; 168,92</t>
+          <t>44,59; 162,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,14; 73,39</t>
+          <t>13,32; 76,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,46; 89,8</t>
+          <t>13,86; 91,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,71; 15,75</t>
+          <t>5,93; 15,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,63; 18,45</t>
+          <t>7,62; 18,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,61; 15,82</t>
+          <t>5,94; 16,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,49; 92,75</t>
+          <t>26,86; 94,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,17; 76,08</t>
+          <t>24,08; 74,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>23,01; 83,27</t>
+          <t>24,99; 86,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,56; 17,27</t>
+          <t>7,16; 16,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,04; 14,81</t>
+          <t>5,9; 14,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,42; 13,62</t>
+          <t>4,16; 13,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>27,44; 76,31</t>
+          <t>25,83; 71,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,59; 87,11</t>
+          <t>26,38; 86,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,59; 55,93</t>
+          <t>14,24; 55,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,64; 16,0</t>
+          <t>11,33; 15,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>12,31; 16,85</t>
+          <t>12,05; 16,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,11; 14,47</t>
+          <t>9,97; 14,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>55,85; 85,4</t>
+          <t>54,26; 84,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>48,57; 72,36</t>
+          <t>47,72; 71,85</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>40,53; 63,04</t>
+          <t>39,94; 64,93</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/POLIPATOLOGIA-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 14,36</t>
+          <t>0,51; 14,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,39; 25,29</t>
+          <t>9,57; 24,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 11,64</t>
+          <t>-2,79; 11,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 98,04</t>
+          <t>2,36; 94,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>33,11; 124,36</t>
+          <t>32,33; 121,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 45,68</t>
+          <t>-7,59; 45,07</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,48; 27,62</t>
+          <t>16,49; 27,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,45; 19,35</t>
+          <t>7,91; 19,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,24; 19,35</t>
+          <t>7,75; 19,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,94; 19,27</t>
+          <t>7,02; 18,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>80,69; 180,59</t>
+          <t>79,68; 177,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,41; 109,24</t>
+          <t>32,89; 116,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,93; 103,27</t>
+          <t>29,85; 96,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,95; 82,92</t>
+          <t>22,85; 80,74</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,62; 20,12</t>
+          <t>7,25; 20,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 16,25</t>
+          <t>0,37; 15,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,32; 19,67</t>
+          <t>6,45; 19,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,75; 17,67</t>
+          <t>4,3; 17,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>37,36; 146,93</t>
+          <t>36,04; 157,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 65,05</t>
+          <t>1,19; 63,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,28; 117,21</t>
+          <t>28,75; 123,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,79; 54,25</t>
+          <t>10,54; 53,67</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,66; 16,73</t>
+          <t>4,12; 16,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,56; 24,76</t>
+          <t>14,69; 24,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,18; 21,22</t>
+          <t>7,09; 20,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,63; 22,22</t>
+          <t>4,69; 22,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,21; 94,94</t>
+          <t>16,74; 96,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>56,3; 117,73</t>
+          <t>56,26; 118,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,15; 85,22</t>
+          <t>22,58; 82,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,84; 71,61</t>
+          <t>11,14; 70,55</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,76; 26,45</t>
+          <t>9,94; 26,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,35; 39,78</t>
+          <t>22,1; 39,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,45; 26,0</t>
+          <t>8,66; 25,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 23,93</t>
+          <t>-1,7; 23,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>53,81; 264,71</t>
+          <t>59,87; 287,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>59,33; 173,08</t>
+          <t>65,25; 169,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>31,34; 142,05</t>
+          <t>30,24; 134,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,44; 79,97</t>
+          <t>-3,13; 79,71</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,92; 24,74</t>
+          <t>10,12; 25,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,78; 21,6</t>
+          <t>5,19; 21,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,64; 18,76</t>
+          <t>3,42; 18,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 13,67</t>
+          <t>-1,37; 13,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>44,59; 162,91</t>
+          <t>44,82; 172,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,32; 76,81</t>
+          <t>13,99; 76,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,86; 91,66</t>
+          <t>12,32; 94,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 34,45</t>
+          <t>-2,89; 32,94</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,93; 15,7</t>
+          <t>5,66; 14,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,62; 18,03</t>
+          <t>7,6; 18,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,94; 16,08</t>
+          <t>5,96; 15,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>20,1; 41,01</t>
+          <t>19,38; 39,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,86; 94,59</t>
+          <t>25,46; 87,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,08; 74,52</t>
+          <t>25,79; 75,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24,99; 86,49</t>
+          <t>24,75; 80,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>46,8; 106,1</t>
+          <t>44,73; 104,17</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,16; 16,14</t>
+          <t>7,43; 17,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,9; 14,98</t>
+          <t>5,65; 14,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,16; 13,75</t>
+          <t>4,6; 13,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,48; 17,58</t>
+          <t>7,37; 17,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>25,83; 71,4</t>
+          <t>26,64; 78,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>26,38; 86,69</t>
+          <t>25,38; 83,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>14,24; 55,8</t>
+          <t>16,39; 58,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>26,23; 80,6</t>
+          <t>26,28; 84,45</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,33; 15,8</t>
+          <t>11,49; 15,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>12,05; 16,58</t>
+          <t>12,27; 16,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,97; 14,6</t>
+          <t>10,1; 14,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,99; 20,78</t>
+          <t>11,97; 20,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>54,26; 84,4</t>
+          <t>55,13; 84,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>47,72; 71,85</t>
+          <t>48,18; 71,8</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>39,94; 64,93</t>
+          <t>40,48; 62,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>35,05; 64,17</t>
+          <t>35,31; 64,19</t>
         </is>
       </c>
     </row>
